--- a/20200224疫情数据.xlsx
+++ b/20200224疫情数据.xlsx
@@ -519,16 +519,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>46395</v>
+        <v>45054</v>
       </c>
       <c r="D2">
-        <v>64084</v>
+        <v>64287</v>
       </c>
       <c r="E2">
-        <v>2346</v>
+        <v>2495</v>
       </c>
       <c r="F2">
-        <v>15343</v>
+        <v>16738</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -879,7 +879,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>74</v>
@@ -888,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1079,7 +1079,7 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -1088,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:6">
